--- a/big_mac.xlsx
+++ b/big_mac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikanth\Documents\Udemy\Regression\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big-Mac-Index-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9835AE-3348-44F5-853F-951D91CF1712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB63FE-B88F-4528-9EF4-98D430B30509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1380" windowWidth="21555" windowHeight="10710" xr2:uid="{2DB4C251-0523-4E93-8A40-0CB62AB877E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2DB4C251-0523-4E93-8A40-0CB62AB877E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,17 +404,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF7C011-7F10-498D-B93A-E68E74ABE23C}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.42</v>
       </c>
@@ -430,7 +430,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.86</v>
       </c>
@@ -438,7 +438,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.48</v>
       </c>
@@ -446,7 +446,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.14</v>
       </c>
@@ -454,7 +454,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.21</v>
       </c>
@@ -462,7 +462,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.96</v>
       </c>
@@ -470,7 +470,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.2</v>
       </c>
@@ -478,7 +478,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.9</v>
       </c>
@@ -486,7 +486,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4.09</v>
       </c>
@@ -494,7 +494,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.98</v>
       </c>
@@ -502,7 +502,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.19</v>
       </c>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.84</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.1800000000000002</v>
       </c>
@@ -526,7 +526,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.33</v>
       </c>
@@ -534,7 +534,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.1800000000000002</v>
       </c>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.2200000000000002</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.2400000000000002</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.62</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.32</v>
       </c>
@@ -574,7 +574,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.85</v>
       </c>
@@ -582,7 +582,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.85</v>
       </c>
@@ -590,7 +590,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.7</v>
       </c>
@@ -598,7 +598,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3.6</v>
       </c>
@@ -606,7 +606,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -614,7 +614,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.38</v>
       </c>
@@ -622,7 +622,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.34</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.71</v>
       </c>

--- a/big_mac.xlsx
+++ b/big_mac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big-Mac-Index-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB63FE-B88F-4528-9EF4-98D430B30509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38602D-C07D-410F-A3AD-41257853D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2DB4C251-0523-4E93-8A40-0CB62AB877E2}"/>
+    <workbookView xWindow="3144" yWindow="3132" windowWidth="16368" windowHeight="8616" xr2:uid="{2DB4C251-0523-4E93-8A40-0CB62AB877E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF7C011-7F10-498D-B93A-E68E74ABE23C}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
